--- a/TestMNIST/MatlabCodes/weight_final_iteration_gap_3.xlsx
+++ b/TestMNIST/MatlabCodes/weight_final_iteration_gap_3.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-11.425269147267992</v>
+        <v>-8.5100471597281082</v>
       </c>
       <c r="B1">
-        <v>-9.1440448855065899</v>
+        <v>-7.9086441958729354</v>
       </c>
       <c r="C1">
-        <v>-7.6105547622565659</v>
+        <v>-10.329385548761364</v>
       </c>
       <c r="D1">
-        <v>-7.3555238007426667</v>
+        <v>-17.091056618930654</v>
       </c>
       <c r="E1">
-        <v>-8.5995227445031901</v>
+        <v>-10.397201348853935</v>
       </c>
       <c r="F1">
-        <v>-7.6561623689248819</v>
+        <v>-7.8172393134921947</v>
       </c>
       <c r="G1">
-        <v>-5.9932585472106519</v>
+        <v>-8.6243083469668633</v>
       </c>
       <c r="H1">
-        <v>-10.26982138948955</v>
+        <v>-9.4245675938825464</v>
       </c>
       <c r="I1">
-        <v>-7.3222177307717047</v>
+        <v>-9.673843579769807</v>
       </c>
       <c r="J1">
-        <v>-11.210867374462355</v>
+        <v>-8.5111787528298084</v>
       </c>
       <c r="K1">
-        <v>-6.870151682300679</v>
+        <v>-15.579798565294226</v>
       </c>
       <c r="L1">
-        <v>-9.2767586848087618</v>
+        <v>-8.4983189785559947</v>
       </c>
       <c r="M1">
-        <v>-12.577808564779694</v>
+        <v>-12.149809226904312</v>
       </c>
       <c r="N1">
-        <v>-7.9524609369168244</v>
+        <v>-9.0603207717813081</v>
       </c>
       <c r="O1">
-        <v>-10.912510852088388</v>
+        <v>-11.708496338834705</v>
       </c>
       <c r="P1">
-        <v>-9.359547164053204</v>
+        <v>-9.8385621332702335</v>
       </c>
       <c r="Q1">
-        <v>-10.42240812128578</v>
+        <v>-8.598560757742769</v>
       </c>
       <c r="R1">
-        <v>-9.3761144573919353</v>
+        <v>-9.9303635603070095</v>
       </c>
       <c r="S1">
-        <v>-7.1677342386826561</v>
+        <v>-10.998509661049008</v>
       </c>
       <c r="T1">
-        <v>-10.052532707202316</v>
+        <v>-7.7154093207080301</v>
       </c>
       <c r="U1">
-        <v>-7.6416046641579918</v>
+        <v>-7.3462527672627411</v>
       </c>
       <c r="V1">
-        <v>-11.22810130403308</v>
+        <v>-7.3537937885633484</v>
       </c>
       <c r="W1">
-        <v>-8.5919219312677804</v>
+        <v>-8.7602543021568415</v>
       </c>
       <c r="X1">
-        <v>-9.2075388564369209</v>
+        <v>-8.168055548206544</v>
       </c>
       <c r="Y1">
-        <v>-12.507535674343847</v>
+        <v>-9.2515621906550383</v>
       </c>
       <c r="Z1">
-        <v>-9.1395585952857434</v>
+        <v>-7.759137069280265</v>
       </c>
       <c r="AA1">
-        <v>-10.014866453150173</v>
+        <v>-8.4967647042250558</v>
       </c>
       <c r="AB1">
-        <v>-8.5843607662191914</v>
+        <v>-12.83313590912852</v>
       </c>
       <c r="AC1">
-        <v>-9.0779600927964186</v>
+        <v>-7.8627114935513793</v>
       </c>
       <c r="AD1">
-        <v>-9.469304568419993</v>
+        <v>-13.048480706831526</v>
       </c>
       <c r="AE1">
-        <v>-10.359060138875716</v>
+        <v>-10.721129966845455</v>
       </c>
       <c r="AF1">
-        <v>-9.2540385757455397</v>
+        <v>-7.1768145875864207</v>
       </c>
       <c r="AG1">
-        <v>-8.0130690393751784</v>
+        <v>-11.989187220830736</v>
       </c>
       <c r="AH1">
-        <v>-7.6141120347761131</v>
+        <v>-8.8972697157594389</v>
       </c>
       <c r="AI1">
-        <v>-8.9898652962569052</v>
+        <v>-9.5381757723288541</v>
       </c>
       <c r="AJ1">
-        <v>-19.668653923665651</v>
+        <v>-10.913175528997597</v>
       </c>
       <c r="AK1">
-        <v>-8.3894456487198852</v>
+        <v>-9.1912983543465359</v>
       </c>
       <c r="AL1">
-        <v>-8.0271568207461552</v>
+        <v>-10.075051442458967</v>
       </c>
       <c r="AM1">
-        <v>-9.433776418845607</v>
+        <v>-9.5352229544555893</v>
       </c>
       <c r="AN1">
-        <v>-8.7687606976474317</v>
+        <v>-9.6086518444576239</v>
       </c>
       <c r="AO1">
-        <v>-12.284139511223536</v>
+        <v>-9.5750032368753928</v>
       </c>
       <c r="AP1">
-        <v>-13.599825063707179</v>
+        <v>-8.6724126136157444</v>
       </c>
       <c r="AQ1">
-        <v>-7.3860253990098554</v>
+        <v>-9.8978472111921754</v>
       </c>
       <c r="AR1">
-        <v>-11.129221599096025</v>
+        <v>-12.051269252788147</v>
       </c>
       <c r="AS1">
-        <v>-8.7194924634577209</v>
+        <v>-8.0854126856777171</v>
       </c>
       <c r="AT1">
-        <v>-9.8912800406622949</v>
+        <v>-8.857343182423957</v>
       </c>
       <c r="AU1">
-        <v>-8.3491834463774897</v>
+        <v>-8.9811906150788516</v>
       </c>
       <c r="AV1">
-        <v>-7.9916061717314593</v>
+        <v>-7.6334034856355109</v>
       </c>
       <c r="AW1">
-        <v>-7.5475614127472976</v>
+        <v>-12.980307113231895</v>
       </c>
       <c r="AX1">
-        <v>-13.408476300032261</v>
+        <v>-8.8984118378081103</v>
       </c>
       <c r="AY1">
-        <v>-12.714388992009299</v>
+        <v>-12.175221925075027</v>
       </c>
       <c r="AZ1">
-        <v>-11.303670675929229</v>
+        <v>-9.9531389055999817</v>
       </c>
       <c r="BA1">
-        <v>-8.5551852609321877</v>
+        <v>-8.6642210334633081</v>
       </c>
       <c r="BB1">
-        <v>-7.9153916977837859</v>
+        <v>-10.183295859526689</v>
       </c>
       <c r="BC1">
-        <v>-10.791156385495439</v>
+        <v>-13.645990853995054</v>
       </c>
       <c r="BD1">
-        <v>-8.9304646798084519</v>
+        <v>-11.446584147825897</v>
       </c>
       <c r="BE1">
-        <v>-11.072277995155654</v>
+        <v>-9.191506004892684</v>
       </c>
       <c r="BF1">
-        <v>-10.443415018441854</v>
+        <v>-9.3701111321284341</v>
       </c>
       <c r="BG1">
-        <v>-7.7531059435846581</v>
+        <v>-8.0291240314436081</v>
       </c>
       <c r="BH1">
-        <v>-7.9475433272355858</v>
+        <v>-13.924557401088741</v>
       </c>
       <c r="BI1">
-        <v>-7.6792151477711244</v>
+        <v>-7.1491876397947545</v>
       </c>
       <c r="BJ1">
-        <v>-9.0549847199054945</v>
+        <v>-8.4424872545712226</v>
       </c>
       <c r="BK1">
-        <v>-12.737758183853126</v>
+        <v>-10.991807936825781</v>
       </c>
       <c r="BL1">
-        <v>-7.5735314525382629</v>
+        <v>-9.0912043317857041</v>
       </c>
       <c r="BM1">
-        <v>-8.5766917849874797</v>
+        <v>-12.260629327869809</v>
       </c>
       <c r="BN1">
-        <v>-9.6659126657721597</v>
+        <v>-7.952004009199821</v>
       </c>
       <c r="BO1">
-        <v>-10.347098182815671</v>
+        <v>-8.3688704033604555</v>
       </c>
       <c r="BP1">
-        <v>-7.0669057761205885</v>
+        <v>-11.166272750596564</v>
       </c>
       <c r="BQ1">
-        <v>-8.1948402819566919</v>
+        <v>-8.2074545209074774</v>
       </c>
       <c r="BR1">
-        <v>-14.751827894492072</v>
+        <v>-10.683596075951183</v>
       </c>
       <c r="BS1">
-        <v>-7.452785478673885</v>
+        <v>-8.0553113402317411</v>
       </c>
       <c r="BT1">
-        <v>-7.3687508479558934</v>
+        <v>-7.444254796887722</v>
       </c>
       <c r="BU1">
-        <v>-13.102127331669388</v>
+        <v>-8.1983667931254622</v>
       </c>
       <c r="BV1">
-        <v>-8.0419442774465306</v>
+        <v>-10.299932791335669</v>
       </c>
       <c r="BW1">
-        <v>-8.4962767074615169</v>
+        <v>-9.3976171131063335</v>
       </c>
       <c r="BX1">
-        <v>-7.2365220706993973</v>
+        <v>-9.8184832800875235</v>
       </c>
       <c r="BY1">
-        <v>-9.1281946349316296</v>
+        <v>-8.6796517947407121</v>
       </c>
       <c r="BZ1">
-        <v>-14.572914098474717</v>
+        <v>-8.5728059691948442</v>
       </c>
       <c r="CA1">
-        <v>-16.251109853543756</v>
+        <v>-13.781053359743893</v>
       </c>
       <c r="CB1">
-        <v>-7.0430766421862439</v>
+        <v>-8.0830948759847931</v>
       </c>
       <c r="CC1">
-        <v>-7.0656897061919377</v>
+        <v>-7.8716564998910465</v>
       </c>
       <c r="CD1">
-        <v>-7.4223669782440771</v>
+        <v>-17.131463231895573</v>
       </c>
       <c r="CE1">
-        <v>-8.247459017283596</v>
+        <v>-7.7532951856315373</v>
       </c>
       <c r="CF1">
-        <v>-9.9719124902378216</v>
+        <v>-6.8820847484721046</v>
       </c>
       <c r="CG1">
-        <v>-8.9207702541044451</v>
+        <v>-8.3743206699066217</v>
       </c>
       <c r="CH1">
-        <v>-9.5503131977864761</v>
+        <v>-8.7981773369513991</v>
       </c>
       <c r="CI1">
-        <v>-10.477010009351542</v>
+        <v>-13.767845771279294</v>
       </c>
       <c r="CJ1">
-        <v>-8.0549738844567145</v>
+        <v>-14.944642547299559</v>
       </c>
       <c r="CK1">
-        <v>-9.7652241566311169</v>
+        <v>-9.1147850353919573</v>
       </c>
       <c r="CL1">
-        <v>-12.210616317759984</v>
+        <v>-10.675858094392632</v>
       </c>
       <c r="CM1">
-        <v>-10.120810936921385</v>
+        <v>-9.6572191381899355</v>
       </c>
       <c r="CN1">
-        <v>-12.024077675866241</v>
+        <v>-8.3139855586730249</v>
       </c>
       <c r="CO1">
-        <v>-8.6421083618601013</v>
+        <v>-12.054807853849072</v>
       </c>
       <c r="CP1">
-        <v>-8.4264553893095027</v>
+        <v>-8.8516120793253812</v>
       </c>
       <c r="CQ1">
-        <v>-11.015652881882296</v>
+        <v>-8.083777604752413</v>
       </c>
       <c r="CR1">
-        <v>-8.2980520291476392</v>
+        <v>-9.7087973557063236</v>
       </c>
       <c r="CS1">
-        <v>-8.075923564808221</v>
+        <v>-8.4862656260277909</v>
       </c>
       <c r="CT1">
-        <v>-8.2603669788215601</v>
+        <v>-8.1905889893343335</v>
       </c>
       <c r="CU1">
-        <v>-10.898977049332087</v>
+        <v>-12.371168587638099</v>
       </c>
       <c r="CV1">
-        <v>-10.469519301416446</v>
+        <v>-9.2684529660664161</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-11.570889367192283</v>
+        <v>-7.0592767533815826</v>
       </c>
       <c r="B2">
-        <v>-9.2038412113653045</v>
+        <v>-8.3778464743528307</v>
       </c>
       <c r="C2">
-        <v>-7.7100309408477967</v>
+        <v>-9.7648928169478726</v>
       </c>
       <c r="D2">
-        <v>-7.4331989439210426</v>
+        <v>-15.214022140843413</v>
       </c>
       <c r="E2">
-        <v>-8.6986495103333503</v>
+        <v>-8.8489107302980266</v>
       </c>
       <c r="F2">
-        <v>-7.6892996360771448</v>
+        <v>-7.3078539094174646</v>
       </c>
       <c r="G2">
-        <v>-7.0433077889397993</v>
+        <v>-8.1856710245864832</v>
       </c>
       <c r="H2">
-        <v>-10.330444182299141</v>
+        <v>-8.9360681516936555</v>
       </c>
       <c r="I2">
-        <v>-7.3243803687895355</v>
+        <v>-9.1417521560362029</v>
       </c>
       <c r="J2">
-        <v>-10.319767220485385</v>
+        <v>-8.0363125101067165</v>
       </c>
       <c r="K2">
-        <v>-5.9332415212075009</v>
+        <v>-14.803191060683458</v>
       </c>
       <c r="L2">
-        <v>-10.286902794554127</v>
+        <v>-8.9718000359819037</v>
       </c>
       <c r="M2">
-        <v>-13.650108815601506</v>
+        <v>-10.528942197597383</v>
       </c>
       <c r="N2">
-        <v>-8.0572930402151854</v>
+        <v>-8.5140764151411794</v>
       </c>
       <c r="O2">
-        <v>-11.007192145962739</v>
+        <v>-11.071623745698718</v>
       </c>
       <c r="P2">
-        <v>-9.4772219919915273</v>
+        <v>-9.3908715473508533</v>
       </c>
       <c r="Q2">
-        <v>-11.522997092692075</v>
+        <v>-8.1692170984846069</v>
       </c>
       <c r="R2">
-        <v>-9.4653905597867123</v>
+        <v>-9.3849769028600285</v>
       </c>
       <c r="S2">
-        <v>-7.1597053799242545</v>
+        <v>-10.518054116908049</v>
       </c>
       <c r="T2">
-        <v>-10.168250756923795</v>
+        <v>-6.32482798056368</v>
       </c>
       <c r="U2">
-        <v>-6.6748090753690246</v>
+        <v>-7.89252419001195</v>
       </c>
       <c r="V2">
-        <v>-11.350592369270966</v>
+        <v>-7.8681740343909867</v>
       </c>
       <c r="W2">
-        <v>-8.6399468185372523</v>
+        <v>-8.2564726383375451</v>
       </c>
       <c r="X2">
-        <v>-9.2606432404214285</v>
+        <v>-7.7106796317149016</v>
       </c>
       <c r="Y2">
-        <v>-12.60347801502915</v>
+        <v>-8.745616337077891</v>
       </c>
       <c r="Z2">
-        <v>-9.2035716276729147</v>
+        <v>-7.3456045197961393</v>
       </c>
       <c r="AA2">
-        <v>-9.2136973353602905</v>
+        <v>-8.0566860417786135</v>
       </c>
       <c r="AB2">
-        <v>-8.6630756693686095</v>
+        <v>-12.182751032669701</v>
       </c>
       <c r="AC2">
-        <v>-9.1425756938488707</v>
+        <v>-8.2951354006425362</v>
       </c>
       <c r="AD2">
-        <v>-8.5588506955940584</v>
+        <v>-12.406321775424304</v>
       </c>
       <c r="AE2">
-        <v>-10.468728460025584</v>
+        <v>-10.165284490486043</v>
       </c>
       <c r="AF2">
-        <v>-10.31387653244586</v>
+        <v>-7.6918216350264821</v>
       </c>
       <c r="AG2">
-        <v>-7.0672054736125212</v>
+        <v>-10.350850217501609</v>
       </c>
       <c r="AH2">
-        <v>-7.663441395295874</v>
+        <v>-8.3977151009099007</v>
       </c>
       <c r="AI2">
-        <v>-9.0713277391031042</v>
+        <v>-9.0409901088586295</v>
       </c>
       <c r="AJ2">
-        <v>-18.851411355053603</v>
+        <v>-9.2879455057777829</v>
       </c>
       <c r="AK2">
-        <v>-8.5807824146730898</v>
+        <v>-8.6825550129277111</v>
       </c>
       <c r="AL2">
-        <v>-7.0533315052148025</v>
+        <v>-9.5412033016199427</v>
       </c>
       <c r="AM2">
-        <v>-8.5181834344039942</v>
+        <v>-8.9985200158126872</v>
       </c>
       <c r="AN2">
-        <v>-8.8022439306978857</v>
+        <v>-9.1172802949527405</v>
       </c>
       <c r="AO2">
-        <v>-11.418933903971148</v>
+        <v>-9.0428955797773654</v>
       </c>
       <c r="AP2">
-        <v>-13.748289450145542</v>
+        <v>-8.1221066939401556</v>
       </c>
       <c r="AQ2">
-        <v>-7.4252465265613754</v>
+        <v>-10.344892618770055</v>
       </c>
       <c r="AR2">
-        <v>-10.265172110390722</v>
+        <v>-11.364425180279623</v>
       </c>
       <c r="AS2">
-        <v>-8.7383553695752738</v>
+        <v>-7.6445492162375883</v>
       </c>
       <c r="AT2">
-        <v>-10.995432646176624</v>
+        <v>-8.3300338756488959</v>
       </c>
       <c r="AU2">
-        <v>-9.4460142378148788</v>
+        <v>-8.4624124816694621</v>
       </c>
       <c r="AV2">
-        <v>-7.9960726704051126</v>
+        <v>-8.1970101972560663</v>
       </c>
       <c r="AW2">
-        <v>-6.5734923848095308</v>
+        <v>-12.273521202224311</v>
       </c>
       <c r="AX2">
-        <v>-12.614151305295186</v>
+        <v>-9.3379301935953372</v>
       </c>
       <c r="AY2">
-        <v>-12.922748022024734</v>
+        <v>-10.579665766124711</v>
       </c>
       <c r="AZ2">
-        <v>-10.387348554019848</v>
+        <v>-8.4272047557276473</v>
       </c>
       <c r="BA2">
-        <v>-8.652216926261886</v>
+        <v>-8.1563543238522698</v>
       </c>
       <c r="BB2">
-        <v>-8.9732032475937409</v>
+        <v>-9.6397960283320501</v>
       </c>
       <c r="BC2">
-        <v>-10.935691315866338</v>
+        <v>-12.942011879768312</v>
       </c>
       <c r="BD2">
-        <v>-9.0111401110126792</v>
+        <v>-10.80904810737403</v>
       </c>
       <c r="BE2">
-        <v>-11.233492391050794</v>
+        <v>-8.7362875662206232</v>
       </c>
       <c r="BF2">
-        <v>-9.5597792946566251</v>
+        <v>-8.8594314742738742</v>
       </c>
       <c r="BG2">
-        <v>-8.8345508314839147</v>
+        <v>-7.5833775008687008</v>
       </c>
       <c r="BH2">
-        <v>-7.9860464270171843</v>
+        <v>-13.280304148576247</v>
       </c>
       <c r="BI2">
-        <v>-7.7758813693208104</v>
+        <v>-7.7647653588368444</v>
       </c>
       <c r="BJ2">
-        <v>-9.105760429229953</v>
+        <v>-7.9620931472853105</v>
       </c>
       <c r="BK2">
-        <v>-12.825031473404042</v>
+        <v>-10.340331544488253</v>
       </c>
       <c r="BL2">
-        <v>-7.5769631329065659</v>
+        <v>-7.5797221029201109</v>
       </c>
       <c r="BM2">
-        <v>-8.6625409405791878</v>
+        <v>-11.573079459796393</v>
       </c>
       <c r="BN2">
-        <v>-9.7521088739186386</v>
+        <v>-7.5382671702738957</v>
       </c>
       <c r="BO2">
-        <v>-9.5215920154532423</v>
+        <v>-7.8496925892224363</v>
       </c>
       <c r="BP2">
-        <v>-7.1235596987756349</v>
+        <v>-9.6343803619671498</v>
       </c>
       <c r="BQ2">
-        <v>-8.2985536215179501</v>
+        <v>-7.7503712216127099</v>
       </c>
       <c r="BR2">
-        <v>-14.961392388109712</v>
+        <v>-10.152198379362636</v>
       </c>
       <c r="BS2">
-        <v>-7.5540129137452734</v>
+        <v>-7.5924010921037235</v>
       </c>
       <c r="BT2">
-        <v>-7.4186086973563317</v>
+        <v>-8.0272927058129859</v>
       </c>
       <c r="BU2">
-        <v>-13.192819589306385</v>
+        <v>-6.7001675793182747</v>
       </c>
       <c r="BV2">
-        <v>-7.1253261040293054</v>
+        <v>-8.7703703548526395</v>
       </c>
       <c r="BW2">
-        <v>-8.5718957934905422</v>
+        <v>-9.7818855455673184</v>
       </c>
       <c r="BX2">
-        <v>-8.3664637424038819</v>
+        <v>-9.2439869308678784</v>
       </c>
       <c r="BY2">
-        <v>-9.1982017548089718</v>
+        <v>-8.2972922752613183</v>
       </c>
       <c r="BZ2">
-        <v>-14.755800279857601</v>
+        <v>-8.088909070795717</v>
       </c>
       <c r="CA2">
-        <v>-16.384364241600103</v>
+        <v>-12.106300160133385</v>
       </c>
       <c r="CB2">
-        <v>-7.0597644938305901</v>
+        <v>-7.6168611584898045</v>
       </c>
       <c r="CC2">
-        <v>-7.0656573400351528</v>
+        <v>-7.4476188353076909</v>
       </c>
       <c r="CD2">
-        <v>-7.4973944901269336</v>
+        <v>-16.253318045852485</v>
       </c>
       <c r="CE2">
-        <v>-8.2956721431709539</v>
+        <v>-7.3220913198605224</v>
       </c>
       <c r="CF2">
-        <v>-10.009452505842942</v>
+        <v>-7.4412763538931053</v>
       </c>
       <c r="CG2">
-        <v>-8.9568673921793192</v>
+        <v>-7.9125793609540676</v>
       </c>
       <c r="CH2">
-        <v>-9.6682719203527032</v>
+        <v>-8.2613459162564524</v>
       </c>
       <c r="CI2">
-        <v>-10.611588937068305</v>
+        <v>-12.11592865212212</v>
       </c>
       <c r="CJ2">
-        <v>-8.1403471863926544</v>
+        <v>-14.251122478085195</v>
       </c>
       <c r="CK2">
-        <v>-9.8998972103856104</v>
+        <v>-8.6376546001739545</v>
       </c>
       <c r="CL2">
-        <v>-12.361448207681903</v>
+        <v>-9.1949044082248381</v>
       </c>
       <c r="CM2">
-        <v>-10.219814695402871</v>
+        <v>-9.1124608559650326</v>
       </c>
       <c r="CN2">
-        <v>-12.032095723766819</v>
+        <v>-7.8089654855984074</v>
       </c>
       <c r="CO2">
-        <v>-8.6416786347910932</v>
+        <v>-11.329935117898764</v>
       </c>
       <c r="CP2">
-        <v>-8.4680023216919142</v>
+        <v>-8.330361227248293</v>
       </c>
       <c r="CQ2">
-        <v>-11.132793282597332</v>
+        <v>-7.5804771639370596</v>
       </c>
       <c r="CR2">
-        <v>-9.4320342473870493</v>
+        <v>-9.1721227834123997</v>
       </c>
       <c r="CS2">
-        <v>-9.1734571873088111</v>
+        <v>-8.0310726656999609</v>
       </c>
       <c r="CT2">
-        <v>-7.3626714562802462</v>
+        <v>-7.728530600027141</v>
       </c>
       <c r="CU2">
-        <v>-11.026877651261294</v>
+        <v>-11.744999259078279</v>
       </c>
       <c r="CV2">
-        <v>-10.635594672230583</v>
+        <v>-8.6895250762246636</v>
       </c>
     </row>
   </sheetData>

--- a/TestMNIST/MatlabCodes/weight_final_iteration_gap_3.xlsx
+++ b/TestMNIST/MatlabCodes/weight_final_iteration_gap_3.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-8.5100471597281082</v>
+        <v>-7.7577058873630635</v>
       </c>
       <c r="B1">
-        <v>-7.9086441958729354</v>
+        <v>-10.063645091669372</v>
       </c>
       <c r="C1">
-        <v>-10.329385548761364</v>
+        <v>-9.5360231168095364</v>
       </c>
       <c r="D1">
-        <v>-17.091056618930654</v>
+        <v>-8.5528597275963847</v>
       </c>
       <c r="E1">
-        <v>-10.397201348853935</v>
+        <v>-9.9275876512341483</v>
       </c>
       <c r="F1">
-        <v>-7.8172393134921947</v>
+        <v>-9.2038876875467821</v>
       </c>
       <c r="G1">
-        <v>-8.6243083469668633</v>
+        <v>-9.3210785411698112</v>
       </c>
       <c r="H1">
-        <v>-9.4245675938825464</v>
+        <v>-7.5177794345755515</v>
       </c>
       <c r="I1">
-        <v>-9.673843579769807</v>
+        <v>-9.0543076084057041</v>
       </c>
       <c r="J1">
-        <v>-8.5111787528298084</v>
+        <v>-9.2821113881334547</v>
       </c>
       <c r="K1">
-        <v>-15.579798565294226</v>
+        <v>-10.982219336010827</v>
       </c>
       <c r="L1">
-        <v>-8.4983189785559947</v>
+        <v>-9.0234793453164031</v>
       </c>
       <c r="M1">
-        <v>-12.149809226904312</v>
+        <v>-9.7638127411866353</v>
       </c>
       <c r="N1">
-        <v>-9.0603207717813081</v>
+        <v>-8.7580586420676525</v>
       </c>
       <c r="O1">
-        <v>-11.708496338834705</v>
+        <v>-9.4069421680163359</v>
       </c>
       <c r="P1">
-        <v>-9.8385621332702335</v>
+        <v>-9.7352658048198109</v>
       </c>
       <c r="Q1">
-        <v>-8.598560757742769</v>
+        <v>-10.845985356660158</v>
       </c>
       <c r="R1">
-        <v>-9.9303635603070095</v>
+        <v>-10.159029609734269</v>
       </c>
       <c r="S1">
-        <v>-10.998509661049008</v>
+        <v>-8.4096349110532369</v>
       </c>
       <c r="T1">
-        <v>-7.7154093207080301</v>
+        <v>-9.3012544419004684</v>
       </c>
       <c r="U1">
-        <v>-7.3462527672627411</v>
+        <v>-9.2309956639944417</v>
       </c>
       <c r="V1">
-        <v>-7.3537937885633484</v>
+        <v>-8.670555685738254</v>
       </c>
       <c r="W1">
-        <v>-8.7602543021568415</v>
+        <v>-10.446912571023258</v>
       </c>
       <c r="X1">
-        <v>-8.168055548206544</v>
+        <v>-7.7404065594483082</v>
       </c>
       <c r="Y1">
-        <v>-9.2515621906550383</v>
+        <v>-9.845565159165103</v>
       </c>
       <c r="Z1">
-        <v>-7.759137069280265</v>
+        <v>-9.3811575813417214</v>
       </c>
       <c r="AA1">
-        <v>-8.4967647042250558</v>
+        <v>-10.048452352767622</v>
       </c>
       <c r="AB1">
-        <v>-12.83313590912852</v>
+        <v>-8.122167965734489</v>
       </c>
       <c r="AC1">
-        <v>-7.8627114935513793</v>
+        <v>-9.5875294108274947</v>
       </c>
       <c r="AD1">
-        <v>-13.048480706831526</v>
+        <v>-8.8939327192725219</v>
       </c>
       <c r="AE1">
-        <v>-10.721129966845455</v>
+        <v>-10.0076705715695</v>
       </c>
       <c r="AF1">
-        <v>-7.1768145875864207</v>
+        <v>-10.087225907005116</v>
       </c>
       <c r="AG1">
-        <v>-11.989187220830736</v>
+        <v>-8.2783959173918227</v>
       </c>
       <c r="AH1">
-        <v>-8.8972697157594389</v>
+        <v>-9.194602125153871</v>
       </c>
       <c r="AI1">
-        <v>-9.5381757723288541</v>
+        <v>-9.117548347384913</v>
       </c>
       <c r="AJ1">
-        <v>-10.913175528997597</v>
+        <v>-8.2771072815844065</v>
       </c>
       <c r="AK1">
-        <v>-9.1912983543465359</v>
+        <v>-9.2030512227602923</v>
       </c>
       <c r="AL1">
-        <v>-10.075051442458967</v>
+        <v>-7.3304412708172366</v>
       </c>
       <c r="AM1">
-        <v>-9.5352229544555893</v>
+        <v>-9.8794403874385051</v>
       </c>
       <c r="AN1">
-        <v>-9.6086518444576239</v>
+        <v>-10.74488654071785</v>
       </c>
       <c r="AO1">
-        <v>-9.5750032368753928</v>
+        <v>-9.0689747220739427</v>
       </c>
       <c r="AP1">
-        <v>-8.6724126136157444</v>
+        <v>-10.639002371654499</v>
       </c>
       <c r="AQ1">
-        <v>-9.8978472111921754</v>
+        <v>-9.2218545872003652</v>
       </c>
       <c r="AR1">
-        <v>-12.051269252788147</v>
+        <v>-10.344633957036761</v>
       </c>
       <c r="AS1">
-        <v>-8.0854126856777171</v>
+        <v>-8.9679344000526147</v>
       </c>
       <c r="AT1">
-        <v>-8.857343182423957</v>
+        <v>-8.744542325049812</v>
       </c>
       <c r="AU1">
-        <v>-8.9811906150788516</v>
+        <v>-9.8515861314410653</v>
       </c>
       <c r="AV1">
-        <v>-7.6334034856355109</v>
+        <v>-10.041597223684537</v>
       </c>
       <c r="AW1">
-        <v>-12.980307113231895</v>
+        <v>-8.9185390807639973</v>
       </c>
       <c r="AX1">
-        <v>-8.8984118378081103</v>
+        <v>-10.077192295826007</v>
       </c>
       <c r="AY1">
-        <v>-12.175221925075027</v>
+        <v>-9.265309788365057</v>
       </c>
       <c r="AZ1">
-        <v>-9.9531389055999817</v>
+        <v>-9.6102702628223629</v>
       </c>
       <c r="BA1">
-        <v>-8.6642210334633081</v>
+        <v>-8.6607877504272661</v>
       </c>
       <c r="BB1">
-        <v>-10.183295859526689</v>
+        <v>-8.7871004663064571</v>
       </c>
       <c r="BC1">
-        <v>-13.645990853995054</v>
+        <v>-8.8563569796938157</v>
       </c>
       <c r="BD1">
-        <v>-11.446584147825897</v>
+        <v>-9.7923415558499229</v>
       </c>
       <c r="BE1">
-        <v>-9.191506004892684</v>
+        <v>-9.8904699745103528</v>
       </c>
       <c r="BF1">
-        <v>-9.3701111321284341</v>
+        <v>-10.071424270590695</v>
       </c>
       <c r="BG1">
-        <v>-8.0291240314436081</v>
+        <v>-8.787066745394867</v>
       </c>
       <c r="BH1">
-        <v>-13.924557401088741</v>
+        <v>-9.1123623215975087</v>
       </c>
       <c r="BI1">
-        <v>-7.1491876397947545</v>
+        <v>-10.416023858815752</v>
       </c>
       <c r="BJ1">
-        <v>-8.4424872545712226</v>
+        <v>-8.9698379033779698</v>
       </c>
       <c r="BK1">
-        <v>-10.991807936825781</v>
+        <v>-9.3387482881028472</v>
       </c>
       <c r="BL1">
-        <v>-9.0912043317857041</v>
+        <v>-8.154686203743271</v>
       </c>
       <c r="BM1">
-        <v>-12.260629327869809</v>
+        <v>-10.792149665285706</v>
       </c>
       <c r="BN1">
-        <v>-7.952004009199821</v>
+        <v>-9.8937431034280827</v>
       </c>
       <c r="BO1">
-        <v>-8.3688704033604555</v>
+        <v>-10.251628037785713</v>
       </c>
       <c r="BP1">
-        <v>-11.166272750596564</v>
+        <v>-9.2543131727560866</v>
       </c>
       <c r="BQ1">
-        <v>-8.2074545209074774</v>
+        <v>-8.5233738264615173</v>
       </c>
       <c r="BR1">
-        <v>-10.683596075951183</v>
+        <v>-10.033454833086163</v>
       </c>
       <c r="BS1">
-        <v>-8.0553113402317411</v>
+        <v>-9.5885608046045405</v>
       </c>
       <c r="BT1">
-        <v>-7.444254796887722</v>
+        <v>-7.8546277225847962</v>
       </c>
       <c r="BU1">
-        <v>-8.1983667931254622</v>
+        <v>-9.2030893449881823</v>
       </c>
       <c r="BV1">
-        <v>-10.299932791335669</v>
+        <v>-8.3305247202452914</v>
       </c>
       <c r="BW1">
-        <v>-9.3976171131063335</v>
+        <v>-9.7568633313884607</v>
       </c>
       <c r="BX1">
-        <v>-9.8184832800875235</v>
+        <v>-9.7054546533571155</v>
       </c>
       <c r="BY1">
-        <v>-8.6796517947407121</v>
+        <v>-9.9992511954555408</v>
       </c>
       <c r="BZ1">
-        <v>-8.5728059691948442</v>
+        <v>-9.4917639642644964</v>
       </c>
       <c r="CA1">
-        <v>-13.781053359743893</v>
+        <v>-9.0852121284833682</v>
       </c>
       <c r="CB1">
-        <v>-8.0830948759847931</v>
+        <v>-9.2677563755747876</v>
       </c>
       <c r="CC1">
-        <v>-7.8716564998910465</v>
+        <v>-8.9039410995771533</v>
       </c>
       <c r="CD1">
-        <v>-17.131463231895573</v>
+        <v>-10.325424925707107</v>
       </c>
       <c r="CE1">
-        <v>-7.7532951856315373</v>
+        <v>-9.329935613316108</v>
       </c>
       <c r="CF1">
-        <v>-6.8820847484721046</v>
+        <v>-9.9028142566796316</v>
       </c>
       <c r="CG1">
-        <v>-8.3743206699066217</v>
+        <v>-9.2817487398878455</v>
       </c>
       <c r="CH1">
-        <v>-8.7981773369513991</v>
+        <v>-10.180371717108072</v>
       </c>
       <c r="CI1">
-        <v>-13.767845771279294</v>
+        <v>-9.6472737289757351</v>
       </c>
       <c r="CJ1">
-        <v>-14.944642547299559</v>
+        <v>-8.2287291907330928</v>
       </c>
       <c r="CK1">
-        <v>-9.1147850353919573</v>
+        <v>-8.675491296483349</v>
       </c>
       <c r="CL1">
-        <v>-10.675858094392632</v>
+        <v>-11.060760012399582</v>
       </c>
       <c r="CM1">
-        <v>-9.6572191381899355</v>
+        <v>-8.9729218518285538</v>
       </c>
       <c r="CN1">
-        <v>-8.3139855586730249</v>
+        <v>-10.102727390063697</v>
       </c>
       <c r="CO1">
-        <v>-12.054807853849072</v>
+        <v>-9.8896466434463495</v>
       </c>
       <c r="CP1">
-        <v>-8.8516120793253812</v>
+        <v>-9.4795582135907459</v>
       </c>
       <c r="CQ1">
-        <v>-8.083777604752413</v>
+        <v>-11.408333588700986</v>
       </c>
       <c r="CR1">
-        <v>-9.7087973557063236</v>
+        <v>-9.8966048705149525</v>
       </c>
       <c r="CS1">
-        <v>-8.4862656260277909</v>
+        <v>-10.470714220363611</v>
       </c>
       <c r="CT1">
-        <v>-8.1905889893343335</v>
+        <v>-9.142434265135325</v>
       </c>
       <c r="CU1">
-        <v>-12.371168587638099</v>
+        <v>-10.001625201840547</v>
       </c>
       <c r="CV1">
-        <v>-9.2684529660664161</v>
+        <v>-9.7468989961073174</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-7.0592767533815826</v>
+        <v>-8.7649080954628928</v>
       </c>
       <c r="B2">
-        <v>-8.3778464743528307</v>
+        <v>-10.101127554683577</v>
       </c>
       <c r="C2">
-        <v>-9.7648928169478726</v>
+        <v>-9.6065074809531499</v>
       </c>
       <c r="D2">
-        <v>-15.214022140843413</v>
+        <v>-8.6555863365979651</v>
       </c>
       <c r="E2">
-        <v>-8.8489107302980266</v>
+        <v>-10.055286620777581</v>
       </c>
       <c r="F2">
-        <v>-7.3078539094174646</v>
+        <v>-9.2483885305716775</v>
       </c>
       <c r="G2">
-        <v>-8.1856710245864832</v>
+        <v>-9.3368129449985133</v>
       </c>
       <c r="H2">
-        <v>-8.9360681516936555</v>
+        <v>-8.6162495977730202</v>
       </c>
       <c r="I2">
-        <v>-9.1417521560362029</v>
+        <v>-9.1188442344563647</v>
       </c>
       <c r="J2">
-        <v>-8.0363125101067165</v>
+        <v>-9.2505989594075544</v>
       </c>
       <c r="K2">
-        <v>-14.803191060683458</v>
+        <v>-9.9619809098027581</v>
       </c>
       <c r="L2">
-        <v>-8.9718000359819037</v>
+        <v>-9.0724554397263955</v>
       </c>
       <c r="M2">
-        <v>-10.528942197597383</v>
+        <v>-9.8592773116418151</v>
       </c>
       <c r="N2">
-        <v>-8.5140764151411794</v>
+        <v>-8.7774938247653278</v>
       </c>
       <c r="O2">
-        <v>-11.071623745698718</v>
+        <v>-9.4641319040607179</v>
       </c>
       <c r="P2">
-        <v>-9.3908715473508533</v>
+        <v>-8.8192165370324105</v>
       </c>
       <c r="Q2">
-        <v>-8.1692170984846069</v>
+        <v>-10.849729353789749</v>
       </c>
       <c r="R2">
-        <v>-9.3849769028600285</v>
+        <v>-10.150341818182724</v>
       </c>
       <c r="S2">
-        <v>-10.518054116908049</v>
+        <v>-9.3608273763299916</v>
       </c>
       <c r="T2">
-        <v>-6.32482798056368</v>
+        <v>-9.2449310779528258</v>
       </c>
       <c r="U2">
-        <v>-7.89252419001195</v>
+        <v>-9.140754591173522</v>
       </c>
       <c r="V2">
-        <v>-7.8681740343909867</v>
+        <v>-9.790094504143811</v>
       </c>
       <c r="W2">
-        <v>-8.2564726383375451</v>
+        <v>-10.447930619701479</v>
       </c>
       <c r="X2">
-        <v>-7.7106796317149016</v>
+        <v>-8.7643421522458969</v>
       </c>
       <c r="Y2">
-        <v>-8.745616337077891</v>
+        <v>-9.7663691502483321</v>
       </c>
       <c r="Z2">
-        <v>-7.3456045197961393</v>
+        <v>-9.4457307214691255</v>
       </c>
       <c r="AA2">
-        <v>-8.0566860417786135</v>
+        <v>-10.195264248359486</v>
       </c>
       <c r="AB2">
-        <v>-12.182751032669701</v>
+        <v>-8.1274899409580357</v>
       </c>
       <c r="AC2">
-        <v>-8.2951354006425362</v>
+        <v>-9.6554594800256783</v>
       </c>
       <c r="AD2">
-        <v>-12.406321775424304</v>
+        <v>-8.8702148257972624</v>
       </c>
       <c r="AE2">
-        <v>-10.165284490486043</v>
+        <v>-10.008066462338666</v>
       </c>
       <c r="AF2">
-        <v>-7.6918216350264821</v>
+        <v>-10.103315477101784</v>
       </c>
       <c r="AG2">
-        <v>-10.350850217501609</v>
+        <v>-9.2481974711406529</v>
       </c>
       <c r="AH2">
-        <v>-8.3977151009099007</v>
+        <v>-8.2588458346059266</v>
       </c>
       <c r="AI2">
-        <v>-9.0409901088586295</v>
+        <v>-9.0391628385990508</v>
       </c>
       <c r="AJ2">
-        <v>-9.2879455057777829</v>
+        <v>-9.2074192600240323</v>
       </c>
       <c r="AK2">
-        <v>-8.6825550129277111</v>
+        <v>-9.2858402418980148</v>
       </c>
       <c r="AL2">
-        <v>-9.5412033016199427</v>
+        <v>-8.330784959844129</v>
       </c>
       <c r="AM2">
-        <v>-8.9985200158126872</v>
+        <v>-9.8705843388861734</v>
       </c>
       <c r="AN2">
-        <v>-9.1172802949527405</v>
+        <v>-9.66541414188411</v>
       </c>
       <c r="AO2">
-        <v>-9.0428955797773654</v>
+        <v>-8.0380909506651363</v>
       </c>
       <c r="AP2">
-        <v>-8.1221066939401556</v>
+        <v>-10.615247025271023</v>
       </c>
       <c r="AQ2">
-        <v>-10.344892618770055</v>
+        <v>-8.1763017835157044</v>
       </c>
       <c r="AR2">
-        <v>-11.364425180279623</v>
+        <v>-10.363760388215322</v>
       </c>
       <c r="AS2">
-        <v>-7.6445492162375883</v>
+        <v>-8.1101215841122443</v>
       </c>
       <c r="AT2">
-        <v>-8.3300338756488959</v>
+        <v>-9.9122734216838548</v>
       </c>
       <c r="AU2">
-        <v>-8.4624124816694621</v>
+        <v>-9.8104028211489638</v>
       </c>
       <c r="AV2">
-        <v>-8.1970101972560663</v>
+        <v>-10.048589785497807</v>
       </c>
       <c r="AW2">
-        <v>-12.273521202224311</v>
+        <v>-8.8625231153301804</v>
       </c>
       <c r="AX2">
-        <v>-9.3379301935953372</v>
+        <v>-9.1767943957817995</v>
       </c>
       <c r="AY2">
-        <v>-10.579665766124711</v>
+        <v>-9.2862194982771946</v>
       </c>
       <c r="AZ2">
-        <v>-8.4272047557276473</v>
+        <v>-8.5824881203179899</v>
       </c>
       <c r="BA2">
-        <v>-8.1563543238522698</v>
+        <v>-8.7302189585928627</v>
       </c>
       <c r="BB2">
-        <v>-9.6397960283320501</v>
+        <v>-8.8061109782733951</v>
       </c>
       <c r="BC2">
-        <v>-12.942011879768312</v>
+        <v>-8.8694109391593106</v>
       </c>
       <c r="BD2">
-        <v>-10.80904810737403</v>
+        <v>-10.8302375228398</v>
       </c>
       <c r="BE2">
-        <v>-8.7362875662206232</v>
+        <v>-9.8783101434024161</v>
       </c>
       <c r="BF2">
-        <v>-8.8594314742738742</v>
+        <v>-9.0695066164254428</v>
       </c>
       <c r="BG2">
-        <v>-7.5833775008687008</v>
+        <v>-9.7868542604221993</v>
       </c>
       <c r="BH2">
-        <v>-13.280304148576247</v>
+        <v>-9.2305606771165394</v>
       </c>
       <c r="BI2">
-        <v>-7.7647653588368444</v>
+        <v>-10.458590686242013</v>
       </c>
       <c r="BJ2">
-        <v>-7.9620931472853105</v>
+        <v>-9.9862820775240024</v>
       </c>
       <c r="BK2">
-        <v>-10.340331544488253</v>
+        <v>-9.3530588251116118</v>
       </c>
       <c r="BL2">
-        <v>-7.5797221029201109</v>
+        <v>-8.1738082418064444</v>
       </c>
       <c r="BM2">
-        <v>-11.573079459796393</v>
+        <v>-10.794887920647152</v>
       </c>
       <c r="BN2">
-        <v>-7.5382671702738957</v>
+        <v>-8.9106933934330073</v>
       </c>
       <c r="BO2">
-        <v>-7.8496925892224363</v>
+        <v>-10.348533357540459</v>
       </c>
       <c r="BP2">
-        <v>-9.6343803619671498</v>
+        <v>-9.2725593022190491</v>
       </c>
       <c r="BQ2">
-        <v>-7.7503712216127099</v>
+        <v>-9.5583292284498409</v>
       </c>
       <c r="BR2">
-        <v>-10.152198379362636</v>
+        <v>-10.106664530036406</v>
       </c>
       <c r="BS2">
-        <v>-7.5924010921037235</v>
+        <v>-9.7095014188686495</v>
       </c>
       <c r="BT2">
-        <v>-8.0272927058129859</v>
+        <v>-8.8400151414748276</v>
       </c>
       <c r="BU2">
-        <v>-6.7001675793182747</v>
+        <v>-9.2322994290598714</v>
       </c>
       <c r="BV2">
-        <v>-8.7703703548526395</v>
+        <v>-9.4400633470640347</v>
       </c>
       <c r="BW2">
-        <v>-9.7818855455673184</v>
+        <v>-9.7856629491406668</v>
       </c>
       <c r="BX2">
-        <v>-9.2439869308678784</v>
+        <v>-9.7309457232618026</v>
       </c>
       <c r="BY2">
-        <v>-8.2972922752613183</v>
+        <v>-10.14668177060787</v>
       </c>
       <c r="BZ2">
-        <v>-8.088909070795717</v>
+        <v>-9.6216020164790503</v>
       </c>
       <c r="CA2">
-        <v>-12.106300160133385</v>
+        <v>-9.0934095696409649</v>
       </c>
       <c r="CB2">
-        <v>-7.6168611584898045</v>
+        <v>-9.284069706843713</v>
       </c>
       <c r="CC2">
-        <v>-7.4476188353076909</v>
+        <v>-10.045404078307341</v>
       </c>
       <c r="CD2">
-        <v>-16.253318045852485</v>
+        <v>-10.294311323493384</v>
       </c>
       <c r="CE2">
-        <v>-7.3220913198605224</v>
+        <v>-9.359304550371581</v>
       </c>
       <c r="CF2">
-        <v>-7.4412763538931053</v>
+        <v>-9.8298226895599505</v>
       </c>
       <c r="CG2">
-        <v>-7.9125793609540676</v>
+        <v>-8.2938190540745289</v>
       </c>
       <c r="CH2">
-        <v>-8.2613459162564524</v>
+        <v>-10.153429898227012</v>
       </c>
       <c r="CI2">
-        <v>-12.11592865212212</v>
+        <v>-9.6498275692371909</v>
       </c>
       <c r="CJ2">
-        <v>-14.251122478085195</v>
+        <v>-9.2520228546828349</v>
       </c>
       <c r="CK2">
-        <v>-8.6376546001739545</v>
+        <v>-8.7481668305747675</v>
       </c>
       <c r="CL2">
-        <v>-9.1949044082248381</v>
+        <v>-11.04730585335742</v>
       </c>
       <c r="CM2">
-        <v>-9.1124608559650326</v>
+        <v>-10.005167504734979</v>
       </c>
       <c r="CN2">
-        <v>-7.8089654855984074</v>
+        <v>-9.1954893511310214</v>
       </c>
       <c r="CO2">
-        <v>-11.329935117898764</v>
+        <v>-9.9825055368004598</v>
       </c>
       <c r="CP2">
-        <v>-8.330361227248293</v>
+        <v>-9.5724941423796341</v>
       </c>
       <c r="CQ2">
-        <v>-7.5804771639370596</v>
+        <v>-11.304821413151272</v>
       </c>
       <c r="CR2">
-        <v>-9.1721227834123997</v>
+        <v>-9.8958977312182306</v>
       </c>
       <c r="CS2">
-        <v>-8.0310726656999609</v>
+        <v>-10.441499651450755</v>
       </c>
       <c r="CT2">
-        <v>-7.728530600027141</v>
+        <v>-8.117141530240179</v>
       </c>
       <c r="CU2">
-        <v>-11.744999259078279</v>
+        <v>-9.9498877766991356</v>
       </c>
       <c r="CV2">
-        <v>-8.6895250762246636</v>
+        <v>-9.8894092350000111</v>
       </c>
     </row>
   </sheetData>
